--- a/DB Specification/ENCLICK_테이블 명세서_FAVOR.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_FAVOR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enssel\Documents\스터디\테이블 명세서\초기버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nougat\ProjectFile\ENCLICK\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4536E713-25B9-4C3D-81CE-78B9DCE7359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27706AA7-C380-4305-AEB7-96590D2E17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,9 +105,6 @@
   <si>
     <t>VARCHAR(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
   </si>
   <si>
     <t>PROJECT NAME</t>
@@ -330,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외래기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 테스트 테이블 명세서에서 지정한 FK 모두 기록해야 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,17 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROD_ID</t>
-  </si>
-  <si>
-    <t>PROD_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(36)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제품ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -461,7 +443,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.23 / ver1.0</t>
+    <t>PROD_CD</t>
+  </si>
+  <si>
+    <t>PROD_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23 / ver1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,31 +1177,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.35546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.25" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.2109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="3.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.35546875" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1221,15 +1214,15 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -1238,19 +1231,19 @@
       <c r="H2" s="44"/>
       <c r="I2" s="45"/>
       <c r="J2" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -1259,22 +1252,22 @@
       <c r="H3" s="44"/>
       <c r="I3" s="45"/>
       <c r="J3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -1283,22 +1276,22 @@
       <c r="H4" s="44"/>
       <c r="I4" s="45"/>
       <c r="J4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>26</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -1309,16 +1302,16 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
       <c r="N5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
@@ -1329,29 +1322,29 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="N6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
       <c r="N7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>10</v>
@@ -1363,16 +1356,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="str">
@@ -1380,65 +1373,65 @@
         <v>WHERE OBJECT_NAME (f.referenced_object_id) = 'FAVOR'</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14"/>
       <c r="B9" s="2" t="str">
         <f>"USE " &amp; C3</f>
         <v>USE ENCLICK</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="str">
         <f>"IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo." &amp; C4 &amp;"') AND type in (N'U'))"</f>
         <v>IF  EXISTS (SELECT * FROM sys.objects WHERE object_id = OBJECT_ID(N'dbo.FAVOR') AND type in (N'U'))</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="str">
         <f xml:space="preserve"> "DROP TABLE dbo." &amp; C4</f>
         <v>DROP TABLE dbo.FAVOR</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="N12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="str">
         <f>"USE " &amp; C3</f>
         <v>USE ENCLICK</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="2" t="str">
         <f>"CREATE TABLE dbo." &amp; C4 &amp; " ("</f>
         <v>CREATE TABLE dbo.FAVOR (</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
@@ -1453,20 +1446,20 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K15" s="10"/>
       <c r="M15" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>17</v>
@@ -1479,31 +1472,31 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13">
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
@@ -1516,26 +1509,26 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13">
         <v>4</v>
       </c>
@@ -1543,13 +1536,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>7</v>
@@ -1558,15 +1551,15 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K18" s="10"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13">
         <v>5</v>
       </c>
@@ -1574,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1583,15 +1576,15 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1605,10 +1598,10 @@
       <c r="K20" s="10"/>
       <c r="M20" s="38"/>
       <c r="N20" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1622,10 +1615,10 @@
       <c r="K21" s="13"/>
       <c r="M21" s="38"/>
       <c r="N21" s="38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1638,10 +1631,10 @@
       <c r="K22" s="13"/>
       <c r="M22" s="38"/>
       <c r="N22" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1656,7 +1649,7 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1670,10 +1663,10 @@
       <c r="K24" s="10"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1688,7 +1681,7 @@
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
     </row>
-    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1702,10 +1695,10 @@
       <c r="K26" s="13"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="13"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1719,10 +1712,10 @@
       <c r="K27" s="12"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="13"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1737,7 +1730,7 @@
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
     </row>
-    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="13"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1751,15 +1744,15 @@
       <c r="K29" s="13"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J30" s="4"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
     </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="2" t="str">
         <f>"CONSTRAINT PK_" &amp; C4 &amp; " PRIMARY KEY CLUSTERED ("</f>
         <v>CONSTRAINT PK_FAVOR PRIMARY KEY CLUSTERED (</v>
@@ -1767,12 +1760,12 @@
       <c r="J31" s="4"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -1784,10 +1777,10 @@
       <c r="J32" s="4"/>
       <c r="M32" s="38"/>
       <c r="N32" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="23"/>
       <c r="E33" s="2" t="str">
         <f t="shared" ref="E33:E35" si="0">IF(C34&lt;&gt;"",",","")</f>
@@ -1796,10 +1789,10 @@
       <c r="J33" s="4"/>
       <c r="M33" s="38"/>
       <c r="N33" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" s="2" t="str">
         <f>IF(C34&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1811,10 +1804,10 @@
       <c r="J34" s="4"/>
       <c r="M34" s="38"/>
       <c r="N34" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="2" t="str">
         <f t="shared" ref="D35" si="1">IF(C35&lt;&gt;"","ASC","")</f>
         <v/>
@@ -1826,86 +1819,86 @@
       <c r="J35" s="4"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J36" s="4"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; $C$5 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'관심상품' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'FAVOR' </v>
       </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J15 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B15 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'관심상품 UUID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'FAVOR', @level2type=N'COLUMN',@level2name=N'FAVOR_UUID' </v>
       </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2" t="str">
-        <f t="shared" ref="B42:B48" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
+        <f t="shared" ref="B42:B44" si="2">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'유저ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'FAVOR', @level2type=N'COLUMN',@level2name=N'USER_ID' </v>
       </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'FAVOR', @level2type=N'COLUMN',@level2name=N'PROD_ID' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'제품ID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'FAVOR', @level2type=N'COLUMN',@level2name=N'PROD_CD' </v>
       </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'FAVOR', @level2type=N'COLUMN',@level2name=N'REGI_DT' </v>
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="2" t="str">
         <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J19 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B19 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'FAVOR', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </v>
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="10:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:K1"/>
@@ -1926,19 +1919,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="3.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.2109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.35546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.2109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.2109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
@@ -1947,9 +1940,9 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -1957,12 +1950,12 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$2</f>
@@ -1970,17 +1963,17 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$2</f>
-        <v>2023.11.23 / ver1.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2023.11.23 / ver1.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$3</f>
@@ -1988,14 +1981,14 @@
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$3</f>
         <v>김혜민</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
@@ -2006,14 +1999,14 @@
       </c>
       <c r="D4" s="47"/>
       <c r="E4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$4</f>
         <v>ENCLICK</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
@@ -2026,7 +2019,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
@@ -2039,115 +2032,115 @@
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="25">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="25">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="25"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="25"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="25"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="25"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="25"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>FAVOR</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</f>
         <v>FK_USER_TO_FAVOR_1</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="29"/>
       <c r="C18" s="23" t="str">
         <f>B9</f>
@@ -2159,26 +2152,26 @@
       </c>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="25" t="str">
         <f>C9</f>
         <v>USER</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="29"/>
       <c r="C21" s="35" t="str">
         <f>D9</f>
@@ -2190,42 +2183,42 @@
       </c>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="33"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>FAVOR</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C18&amp;"_TO_"&amp;C24&amp;"_1"</f>
         <v>FK_USER_ID_TO_FAVOR_1</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="29"/>
       <c r="C25" s="23" t="str">
         <f>B10</f>
-        <v>PROD_ID</v>
+        <v>PROD_CD</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>IF(C26&lt;&gt;"",",","")</f>
@@ -2233,7 +2226,7 @@
       </c>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="29"/>
       <c r="C26" s="23">
         <f>B11</f>
@@ -2245,30 +2238,30 @@
       </c>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="25" t="str">
         <f>C10</f>
         <v>PRODUCT</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="29"/>
       <c r="C29" s="35" t="str">
         <f>D10</f>
-        <v>PROD_ID</v>
+        <v>PROD_CD</v>
       </c>
       <c r="D29" s="2" t="str">
         <f>IF(C30&lt;&gt;"",",","")</f>
@@ -2276,7 +2269,7 @@
       </c>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="29"/>
       <c r="C30" s="35">
         <f>D11</f>
@@ -2288,121 +2281,121 @@
       </c>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="33"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C37" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="2" t="s">
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="2" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="23" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C44" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="2" t="s">
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="2" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
